--- a/dados/temonline.xlsx
+++ b/dados/temonline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1520 +483,1862 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FONTE 200 MONO</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>774.88</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:545641310#searchVariation=MLB24006449&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:545641310#searchVariation=MLB24006449&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>845.87</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:545641310#searchVariation=MLB21348561&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:545641310#searchVariation=MLB21348561&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>624.33</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>499.46</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:545641310#searchVariation=MLB24834408&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:545641310#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>499.46</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:545641310#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:545641310#searchVariation=MLB24834408&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>FONTE 90 BOB</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>422.93</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:545641310#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:545641310#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>100.98</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>87.90000000000001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:545641310#searchVariation=MLB27999036&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:545641310#searchVariation=MLB27687422&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>443.07</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>364.95</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:545641310#searchVariation=MLB21320712&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:545641310#searchVariation=MLB23456525&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>536.26</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>443.07</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:545641310#searchVariation=MLB23998473&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:545641310#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="E10" t="n">
         <v>890.39</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:545641310#searchVariation=MLB26091477&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:545641310#searchVariation=MLB26091477&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>774.88</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:545641310#searchVariation=MLB30464905&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:545641310#searchVariation=MLB30464905&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>694.8200000000001</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100.98</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643841575-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=182327097537#searchVariation%3D182327097537%26position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:545641310#searchVariation=MLB27999036&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>573.36</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>390.43</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3472708216-fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3288469615-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>539.74</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4572217800-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3643841575-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=182327097537#searchVariation%3D182327097537%26position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="E15" t="n">
         <v>402.79</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2194354729-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2194354729-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>493.42</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>539.74</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:545641310#searchVariation=MLB21455208&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4572217800-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>443.07</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>493.42</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3355075751-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:545641310#searchVariation=MLB21455208&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>433</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>443.07</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4051358960-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3355075751-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>402.79</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>433</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:545641310#searchVariation=MLB21621306&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4051358960-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Azul 600 Metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>138</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>402.79</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516148438-controle-longa-distancia-jfa-k600-preto-com-azul-600-metros-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:545641310#searchVariation=MLB21621306&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa K600 600m Preto Verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Azul 600 Metros</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C21" t="n">
-        <v>126</v>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="n">
+        <v>138</v>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-k600-600m-preto-verde/p/MLB28509408?pdp_filters=seller_id:545641310#searchVariation=MLB28509408&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1516148438-controle-longa-distancia-jfa-k600-preto-com-azul-600-metros-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="E22" t="n">
         <v>126</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:545641310#searchVariation=MLB27970249&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:545641310#searchVariation=MLB27970249&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Laranja 600 Mts</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>138</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>434.42</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1509402115-controle-longa-distancia-jfa-k600-preto-com-laranja-600-mts-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3324074811-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Mts</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Laranja 600 Mts</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C24" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E24" t="n">
+        <v>138</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516471527-controle-longa-distancia-jfa-k600-branco-com-cinza-600-mts-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1509402115-controle-longa-distancia-jfa-k600-preto-com-laranja-600-mts-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Conversor Rca Jfa Remoto Adaptador Slim</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Controle Remoto Jfa K600 600m Preto Verde</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>82.8</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516525401-conversor-rca-jfa-remoto-adaptador-slim-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-k600-600m-preto-verde/p/MLB28509408?pdp_filters=seller_id:545641310#searchVariation=MLB28509408&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 Controle Longa Distancia Jfa K1200 Preto </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>182.6</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>61.75</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1552993699-2-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1516535693-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Conversor Rca Jfa Remoto Adaptador Slim</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>47.15</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Mts</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>62.89</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516528748-conversor-rca-jfa-remoto-adaptador-slim-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1516471527-controle-longa-distancia-jfa-k600-branco-com-cinza-600-mts-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa Storm 120a Bivolt Volt/amp</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="E28" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2193207312-fonte-automotiva-jfa-storm-120a-bivolt-voltamp-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2193207312-fonte-automotiva-jfa-storm-120a-bivolt-voltamp-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>694.8200000000001</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Conversor Rca Jfa Remoto Adaptador Slim</t>
+        </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2730652645-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1516525401-conversor-rca-jfa-remoto-adaptador-slim-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>539.74</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>78.90000000000001</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2799710602-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2724892849-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>523.63</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Conversor Rca Jfa Remoto Adaptador Slim</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>47.15</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2195445614-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1516528748-conversor-rca-jfa-remoto-adaptador-slim-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>473.28</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 Controle Longa Distancia Jfa K1200 Preto </t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>182.6</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2194670852-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1552993699-2-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>624.33</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>61.75</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2730609592-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1516526065-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>774.88</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208307262-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1495452422-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>805.59</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208526816-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2730652645-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Cinza 600 Metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>138</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>539.74</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516488217-controle-longa-distancia-jfa-k600-preto-com-cinza-600-metros-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2799710602-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>634.4</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>523.63</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:545641310#searchVariation=MLB21392652&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2195445614-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>716.71</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+        </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>473.28</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:545641310#searchVariation=MLB24154371&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2194670852-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 70a Bivolt Com Medidor Cca E Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>523.63</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4572275336-fonte-automotiva-jfa-storm-70a-bivolt-com-medidor-cca-e-sci-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2730609592-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt 12v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>433</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+        </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>FONTE 200 MONO</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>774.88</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4572198082-fonte-carregador-automotivo-jfa-storm-40a-bivolt-12v-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2208307262-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Bivolt</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C41" t="n">
-        <v>845.87</v>
-      </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208537407-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2208526816-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>433</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Cinza 600 Metros</t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>138</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2194385594-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1516488217-controle-longa-distancia-jfa-k600-preto-com-cinza-600-metros-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Preto Com Verde</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>138</v>
+          <t>temonline</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>634.4</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516494774-controle-longa-distncia-jfa-k600-preto-com-verde-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3548305069-fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>FONTE 200 MONO</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>736.61</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208307419-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D2bc6d35d-f07b-4f44-9f17-29f379da287f</t>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:545641310#searchVariation=MLB21392652&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
         </is>
       </c>
     </row>

--- a/dados/temonline.xlsx
+++ b/dados/temonline.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,20 +493,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>774.88</v>
+        <v>568.15</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:545641310#searchVariation=MLB24006449&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4572217800-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>845.87</v>
+        <v>466.39</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:545641310#searchVariation=MLB21348561&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:545641310#searchVariation=MLB21320712&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,22 +583,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>499.46</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>61.75</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -606,19 +602,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:545641310#searchVariation=MLB22144397&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1516526065-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,20 +624,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>624.33</v>
+        <v>815.67</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -651,19 +647,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:545641310#searchVariation=MLB24834408&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:545641310#searchVariation=MLB24006449&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,20 +669,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>422.93</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -696,19 +692,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:545641310#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:545641310#searchVariation=MLB27687422&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,20 +714,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t xml:space="preserve">2 Controle Longa Distancia Jfa K1200 Preto </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>87.90000000000001</v>
+        <v>182.6</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -741,19 +737,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:545641310#searchVariation=MLB27687422&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1552993699-2-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,20 +759,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>364.95</v>
+        <v>731.39</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -786,19 +782,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:545641310#searchVariation=MLB23456525&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3643841575-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=182327097537#searchVariation%3D182327097537%26position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,20 +804,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>443.07</v>
+        <v>384.16</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -836,14 +832,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:545641310#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:545641310#searchVariation=MLB23456525&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,7 +849,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -881,14 +877,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:545641310#searchVariation=MLB26091477&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:545641310#searchVariation=MLB21348561&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,7 +894,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
+          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -907,7 +903,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>774.88</v>
+        <v>433</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
@@ -922,14 +918,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:545641310#searchVariation=MLB30464905&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4051358960-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,22 +935,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
+          <t>Conversor Rca Jfa Remoto Adaptador Slim</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100.98</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>47.15</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -962,19 +954,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:545641310#searchVariation=MLB27999036&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1516528748-conversor-rca-jfa-remoto-adaptador-slim-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,20 +976,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>390.43</v>
+        <v>657.1900000000001</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1007,19 +999,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3288469615-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:545641310#searchVariation=MLB24834408&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,20 +1021,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>694.8200000000001</v>
+        <v>423.99</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1052,19 +1044,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3643841575-fonte-carregador-automotivo-jfa-bob-storm-200a-bivolt-_JM?searchVariation=182327097537#searchVariation%3D182327097537%26position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2194354729-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1074,20 +1066,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 40a Bivolt Volt/amp</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>402.79</v>
+        <v>525.75</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1102,14 +1094,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2194354729-fonte-carregador-automotivo-jfa-storm-40a-bivolt-voltamp-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:545641310#searchVariation=MLB22144397&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,20 +1111,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 120a Bivolt</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>539.74</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1142,19 +1134,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4572217800-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2724892849-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1164,20 +1156,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>493.42</v>
+        <v>710.1900000000001</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1187,19 +1179,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:545641310#searchVariation=MLB21455208&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2193207312-fonte-automotiva-jfa-storm-120a-bivolt-voltamp-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1209,7 +1201,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1218,11 +1210,11 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>443.07</v>
+        <v>466.39</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1237,14 +1229,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3355075751-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:545641310#searchVariation=MLB21562641&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1254,18 +1246,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 40a Storm Lite 12v Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>433</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+        <v>457.29</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1278,14 +1274,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4051358960-fonte-carregador-automotivo-jfa-40a-storm-lite-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3324074811-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1295,20 +1291,20 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Azul 600 Metros</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>402.79</v>
+        <v>138</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1318,19 +1314,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:545641310#searchVariation=MLB21621306&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1516148438-controle-longa-distancia-jfa-k600-preto-com-azul-600-metros-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1340,16 +1336,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Azul 600 Metros</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>138</v>
+        <v>519.39</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1363,19 +1359,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516148438-controle-longa-distancia-jfa-k600-preto-com-azul-600-metros-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:545641310#searchVariation=MLB21455208&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1385,22 +1381,18 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>126</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>61.75</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1408,19 +1400,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:545641310#searchVariation=MLB27970249&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1516535693-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1430,22 +1422,18 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 70a Storm Lite 12v Bivolt</t>
+          <t>Conversor Rca Jfa Remoto Adaptador Slim</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>434.42</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>49.5</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1458,14 +1446,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3324074811-fonte-carregador-automotivo-jfa-70a-storm-lite-12v-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1516525401-conversor-rca-jfa-remoto-adaptador-slim-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1475,7 +1463,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Laranja 600 Mts</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Mts</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1484,11 +1472,11 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>138</v>
+        <v>62.89</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1503,14 +1491,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1509402115-controle-longa-distancia-jfa-k600-preto-com-laranja-600-mts-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1516471527-controle-longa-distancia-jfa-k600-branco-com-cinza-600-mts-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1520,22 +1508,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa K600 600m Preto Verde</t>
+          <t>Fonte Carregador Automotivo Jfa 200a Storm Lite Mono 220v Cor Azul</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>82.8</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>774.88</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1548,14 +1532,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-k600-600m-preto-verde/p/MLB28509408?pdp_filters=seller_id:545641310#searchVariation=MLB28509408&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-200a-storm-lite-mono-220v-cor-azul/p/MLB30464905?pdp_filters=seller_id:545641310#searchVariation=MLB30464905&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1565,18 +1549,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Laranja 600 Mts</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
+        <v>138</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1589,14 +1577,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516535693-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1509402115-controle-longa-distancia-jfa-k600-preto-com-laranja-600-mts-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1606,20 +1594,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza 600 Mts</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>62.89</v>
+        <v>657.1900000000001</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1629,19 +1617,19 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516471527-controle-longa-distancia-jfa-k600-branco-com-cinza-600-mts-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2730609592-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1651,20 +1639,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Volt/amp</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>674.6799999999999</v>
+        <v>890.39</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1679,14 +1667,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2193207312-fonte-automotiva-jfa-storm-120a-bivolt-voltamp-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:545641310#searchVariation=MLB26091477&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1696,18 +1684,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Conversor Rca Jfa Remoto Adaptador Slim</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+        <v>498.19</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1720,14 +1712,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516525401-conversor-rca-jfa-remoto-adaptador-slim-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2194670852-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1737,20 +1729,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Verde</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>78.90000000000001</v>
+        <v>100.98</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1760,19 +1752,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2724892849-controle-longa-distncia-jfa-acqua-1200-resistente-a-agua-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-preto-com-verde/p/MLB27999036?pdp_filters=seller_id:545641310#searchVariation=MLB27999036&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1782,18 +1774,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Conversor Rca Jfa Remoto Adaptador Slim</t>
+          <t>Fonte Carregador Automotivo Jfa Bob Storm 90a Bivolt</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>47.15</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
+        <v>445.19</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1806,14 +1802,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516528748-conversor-rca-jfa-remoto-adaptador-slim-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3738198622-fonte-carregador-automotivo-jfa-bob-storm-90a-bivolt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1823,16 +1819,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 Controle Longa Distancia Jfa K1200 Preto </t>
+          <t>Fonte Carregador Automotivo Jfa 60a Storm Lite 12v Bivolt</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>182.6</v>
+        <v>410.98</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1846,19 +1842,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1552993699-2-controle-longa-distancia-jfa-k1200-preto-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3288469615-fonte-carregador-automotivo-jfa-60a-storm-lite-12v-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1868,18 +1864,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>61.75</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
+        <v>551.1900000000001</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1892,14 +1892,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516526065-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2195445614-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1909,18 +1909,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>57.6</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1933,14 +1937,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1495452422-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:545641310#searchVariation=MLB27970249&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1950,20 +1954,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>694.8200000000001</v>
+        <v>423.99</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1973,19 +1977,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2730652645-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:545641310#searchVariation=MLB21621306&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2004,11 +2008,11 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>539.74</v>
+        <v>568.15</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2023,14 +2027,14 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2799710602-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2799710602-fonte-carregador-automotivo-jfa-bob-storm-120a-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2040,20 +2044,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 70a Bivolt Volt/amp</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>523.63</v>
+        <v>731.39</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2068,14 +2072,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2195445614-fonte-carregador-automotivo-jfa-storm-70a-bivolt-voltamp-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2730652645-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2085,20 +2089,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Storm 60a Bivolt Volt/amp</t>
+          <t>Controle Remoto Jfa K600 600m Preto Verde</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>473.28</v>
+        <v>126</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2108,19 +2112,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2194670852-fonte-carregador-automotivo-jfa-storm-60a-bivolt-voltamp-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-k600-600m-preto-verde/p/MLB28509408?pdp_filters=seller_id:545641310#searchVariation=MLB28509408&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2130,22 +2134,18 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Bob Storm</t>
+          <t>Filtro Jfa Anti Ruido P/ Toca Cd Dvd Radio Player Modulo Som</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>624.33</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>57.6</v>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -2158,14 +2158,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2730609592-fonte-carregador-automotiva-jfa-200a-bob-storm-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1495452422-filtro-jfa-anti-ruido-p-toca-cd-dvd-radio-player-modulo-som-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2175,20 +2175,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FONTE 200 MONO</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>774.88</v>
+        <v>667.79</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2198,19 +2198,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208307262-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:545641310#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=d24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2229,11 +2229,11 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>805.59</v>
+        <v>847.99</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2248,14 +2248,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2208526816-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208526816-fonte-automotiva-jfa-200a-storm-voltimetro-digital-bivolt-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2293,14 +2293,14 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1516488217-controle-longa-distancia-jfa-k600-preto-com-cinza-600-metros-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1516488217-controle-longa-distancia-jfa-k600-preto-com-cinza-600-metros-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2310,20 +2310,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>634.4</v>
+        <v>815.67</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:545641310#searchVariation=MLB21392652&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=30bfbbf2-12d5-469c-9d13-8b7c01d9066f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2208307262-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd24d74a5-fe2b-471e-b98f-f94627531308</t>
         </is>
       </c>
     </row>
